--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NEC46-PROTESIS DE THOMPSON # 1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NEC46-PROTESIS DE THOMPSON # 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4374C0-6FC6-400D-B117-856977A94507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8379B855-9C4F-41A8-B5B8-9BCDE3283D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12585" yWindow="135" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INQUIORT" sheetId="4" r:id="rId1"/>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -140,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
   <si>
     <t>CANT.</t>
   </si>
@@ -494,6 +483,9 @@
   </si>
   <si>
     <t>SEPARADORES DE HIBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18A0435 </t>
   </si>
 </sst>
 </file>
@@ -501,10 +493,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -898,10 +890,10 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -909,7 +901,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -935,7 +927,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1000,13 +992,13 @@
     <xf numFmtId="20" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -1084,7 +1076,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -1117,10 +1109,10 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1541,8 +1533,8 @@
   </sheetPr>
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2042,7 +2034,7 @@
         <v>107</v>
       </c>
       <c r="B36" s="82" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>17</v>
@@ -2093,7 +2085,7 @@
         <v>112</v>
       </c>
       <c r="B39" s="50">
-        <v>20230600079</v>
+        <v>20231100110</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>111</v>
